--- a/finalscore.xlsx
+++ b/finalscore.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="1924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5218" uniqueCount="1924">
   <si>
     <t>HT</t>
   </si>
@@ -12735,17 +12735,17 @@
       <c r="D266" t="s">
         <v>1408</v>
       </c>
-      <c r="E266" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F266" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G266" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H266" t="e">
-        <v>#N/A</v>
+      <c r="E266" t="s">
+        <v>883</v>
+      </c>
+      <c r="F266" t="s">
+        <v>886</v>
+      </c>
+      <c r="G266" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H266" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="267">
@@ -24955,17 +24955,17 @@
       <c r="D736" t="s">
         <v>1878</v>
       </c>
-      <c r="E736" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F736" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G736" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H736" t="e">
-        <v>#N/A</v>
+      <c r="E736" t="s">
+        <v>913</v>
+      </c>
+      <c r="F736" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G736" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H736" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="737">
@@ -24981,17 +24981,17 @@
       <c r="D737" t="s">
         <v>1879</v>
       </c>
-      <c r="E737" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F737" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G737" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H737" t="e">
-        <v>#N/A</v>
+      <c r="E737" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F737" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G737" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H737" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="738">
@@ -25033,17 +25033,17 @@
       <c r="D739" t="s">
         <v>1881</v>
       </c>
-      <c r="E739" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F739" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G739" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H739" t="e">
-        <v>#N/A</v>
+      <c r="E739" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F739" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G739" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H739" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="740">
@@ -25111,17 +25111,17 @@
       <c r="D742" t="s">
         <v>1884</v>
       </c>
-      <c r="E742" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F742" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G742" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H742" t="e">
-        <v>#N/A</v>
+      <c r="E742" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F742" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G742" t="s">
+        <v>1895</v>
+      </c>
+      <c r="H742" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="743">
@@ -25137,17 +25137,17 @@
       <c r="D743" t="s">
         <v>1885</v>
       </c>
-      <c r="E743" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F743" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G743" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H743" t="e">
-        <v>#N/A</v>
+      <c r="E743" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F743" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G743" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H743" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="744">
@@ -25163,17 +25163,17 @@
       <c r="D744" t="s">
         <v>1886</v>
       </c>
-      <c r="E744" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F744" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G744" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H744" t="e">
-        <v>#N/A</v>
+      <c r="E744" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F744" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G744" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="745">
@@ -25189,17 +25189,17 @@
       <c r="D745" t="s">
         <v>1887</v>
       </c>
-      <c r="E745" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F745" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G745" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H745" t="e">
-        <v>#N/A</v>
+      <c r="E745" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F745" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G745" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H745" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="746">
@@ -25241,17 +25241,17 @@
       <c r="D747" t="s">
         <v>1878</v>
       </c>
-      <c r="E747" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F747" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G747" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H747" t="e">
-        <v>#N/A</v>
+      <c r="E747" t="s">
+        <v>913</v>
+      </c>
+      <c r="F747" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G747" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H747" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="748">
@@ -25267,17 +25267,17 @@
       <c r="D748" t="s">
         <v>1889</v>
       </c>
-      <c r="E748" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F748" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G748" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H748" t="e">
-        <v>#N/A</v>
+      <c r="E748" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F748" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G748" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/finalscore.xlsx
+++ b/finalscore.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11320" uniqueCount="3483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11887" uniqueCount="3484">
   <si>
     <t>HT</t>
   </si>
@@ -10461,6 +10461,9 @@
   </si>
   <si>
     <t>9-0</t>
+  </si>
+  <si>
+    <t>5-3</t>
   </si>
 </sst>
 </file>
@@ -47993,17 +47996,17 @@
       <c r="E1293" t="s">
         <v>3441</v>
       </c>
-      <c r="F1293" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1293" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1293" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1293" t="e">
-        <v>#N/A</v>
+      <c r="F1293" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1294">
@@ -48022,17 +48025,17 @@
       <c r="E1294" t="s">
         <v>3441</v>
       </c>
-      <c r="F1294" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1294" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1294" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1294" t="e">
-        <v>#N/A</v>
+      <c r="F1294" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>3446</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1295">
@@ -48051,17 +48054,17 @@
       <c r="E1295" t="s">
         <v>3441</v>
       </c>
-      <c r="F1295" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1295" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1295" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1295" t="e">
-        <v>#N/A</v>
+      <c r="F1295" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1296">
@@ -48080,17 +48083,17 @@
       <c r="E1296" t="s">
         <v>3441</v>
       </c>
-      <c r="F1296" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1296" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1296" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1296" t="e">
-        <v>#N/A</v>
+      <c r="F1296" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1297">
@@ -48109,17 +48112,17 @@
       <c r="E1297" t="s">
         <v>3441</v>
       </c>
-      <c r="F1297" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1297" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1297" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1297" t="e">
-        <v>#N/A</v>
+      <c r="F1297" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>3451</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1298">
@@ -48138,17 +48141,17 @@
       <c r="E1298" t="s">
         <v>3441</v>
       </c>
-      <c r="F1298" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1298" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1298" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1298" t="e">
-        <v>#N/A</v>
+      <c r="F1298" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1299">
@@ -48167,17 +48170,17 @@
       <c r="E1299" t="s">
         <v>3441</v>
       </c>
-      <c r="F1299" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1299" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1299" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1299" t="e">
-        <v>#N/A</v>
+      <c r="F1299" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1300">
@@ -48196,17 +48199,17 @@
       <c r="E1300" t="s">
         <v>3441</v>
       </c>
-      <c r="F1300" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1300" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1300" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1300" t="e">
-        <v>#N/A</v>
+      <c r="F1300" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1301">
@@ -48225,17 +48228,17 @@
       <c r="E1301" t="s">
         <v>3441</v>
       </c>
-      <c r="F1301" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1301" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1301" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1301" t="e">
-        <v>#N/A</v>
+      <c r="F1301" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1302">
@@ -48254,17 +48257,17 @@
       <c r="E1302" t="s">
         <v>3441</v>
       </c>
-      <c r="F1302" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1302" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1302" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1302" t="e">
-        <v>#N/A</v>
+      <c r="F1302" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1303">
@@ -48283,17 +48286,17 @@
       <c r="E1303" t="s">
         <v>3441</v>
       </c>
-      <c r="F1303" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1303" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1303" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1303" t="e">
-        <v>#N/A</v>
+      <c r="F1303" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>3475</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1304">
@@ -48312,17 +48315,17 @@
       <c r="E1304" t="s">
         <v>3441</v>
       </c>
-      <c r="F1304" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1304" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1304" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1304" t="e">
-        <v>#N/A</v>
+      <c r="F1304" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1305">
@@ -48341,17 +48344,17 @@
       <c r="E1305" t="s">
         <v>3441</v>
       </c>
-      <c r="F1305" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1305" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1305" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1305" t="e">
-        <v>#N/A</v>
+      <c r="F1305" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1306">
@@ -48370,17 +48373,17 @@
       <c r="E1306" t="s">
         <v>3441</v>
       </c>
-      <c r="F1306" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1306" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1306" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1306" t="e">
-        <v>#N/A</v>
+      <c r="F1306" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1307">
@@ -48399,17 +48402,17 @@
       <c r="E1307" t="s">
         <v>3441</v>
       </c>
-      <c r="F1307" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1307" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1307" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1307" t="e">
-        <v>#N/A</v>
+      <c r="F1307" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1308">
@@ -48428,17 +48431,17 @@
       <c r="E1308" t="s">
         <v>3441</v>
       </c>
-      <c r="F1308" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1308" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1308" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1308" t="e">
-        <v>#N/A</v>
+      <c r="F1308" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1309">
@@ -48457,17 +48460,17 @@
       <c r="E1309" t="s">
         <v>3441</v>
       </c>
-      <c r="F1309" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1309" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1309" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1309" t="e">
-        <v>#N/A</v>
+      <c r="F1309" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1310">
@@ -48486,17 +48489,17 @@
       <c r="E1310" t="s">
         <v>3441</v>
       </c>
-      <c r="F1310" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1310" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1310" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1310" t="e">
-        <v>#N/A</v>
+      <c r="F1310" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1311">
@@ -48515,17 +48518,17 @@
       <c r="E1311" t="s">
         <v>3441</v>
       </c>
-      <c r="F1311" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1311" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1311" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1311" t="e">
-        <v>#N/A</v>
+      <c r="F1311" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>3450</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1312">
@@ -48544,17 +48547,17 @@
       <c r="E1312" t="s">
         <v>3441</v>
       </c>
-      <c r="F1312" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1312" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1312" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1312" t="e">
-        <v>#N/A</v>
+      <c r="F1312" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1313">
@@ -48573,17 +48576,17 @@
       <c r="E1313" t="s">
         <v>3441</v>
       </c>
-      <c r="F1313" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1313" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1313" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1313" t="e">
-        <v>#N/A</v>
+      <c r="F1313" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1314">
@@ -48602,17 +48605,17 @@
       <c r="E1314" t="s">
         <v>3442</v>
       </c>
-      <c r="F1314" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1314" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1314" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1314" t="e">
-        <v>#N/A</v>
+      <c r="F1314" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>3449</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1315">
@@ -48631,17 +48634,17 @@
       <c r="E1315" t="s">
         <v>3442</v>
       </c>
-      <c r="F1315" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1315" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1315" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1315" t="e">
-        <v>#N/A</v>
+      <c r="F1315" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1316">
@@ -48660,17 +48663,17 @@
       <c r="E1316" t="s">
         <v>3442</v>
       </c>
-      <c r="F1316" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1316" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1316" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1316" t="e">
-        <v>#N/A</v>
+      <c r="F1316" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1317">
@@ -48689,17 +48692,17 @@
       <c r="E1317" t="s">
         <v>3442</v>
       </c>
-      <c r="F1317" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1317" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1317" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1317" t="e">
-        <v>#N/A</v>
+      <c r="F1317" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1318">
@@ -48718,17 +48721,17 @@
       <c r="E1318" t="s">
         <v>3442</v>
       </c>
-      <c r="F1318" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1318" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1318" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1318" t="e">
-        <v>#N/A</v>
+      <c r="F1318" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1319">
@@ -48747,17 +48750,17 @@
       <c r="E1319" t="s">
         <v>3442</v>
       </c>
-      <c r="F1319" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1319" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1319" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1319" t="e">
-        <v>#N/A</v>
+      <c r="F1319" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1320">
@@ -48776,17 +48779,17 @@
       <c r="E1320" t="s">
         <v>3442</v>
       </c>
-      <c r="F1320" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1320" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1320" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1320" t="e">
-        <v>#N/A</v>
+      <c r="F1320" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>3467</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1321">
@@ -48805,17 +48808,17 @@
       <c r="E1321" t="s">
         <v>3442</v>
       </c>
-      <c r="F1321" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1321" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1321" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1321" t="e">
-        <v>#N/A</v>
+      <c r="F1321" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1322">
@@ -48834,17 +48837,17 @@
       <c r="E1322" t="s">
         <v>3442</v>
       </c>
-      <c r="F1322" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1322" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1322" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1322" t="e">
-        <v>#N/A</v>
+      <c r="F1322" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1323">
@@ -48863,17 +48866,17 @@
       <c r="E1323" t="s">
         <v>3442</v>
       </c>
-      <c r="F1323" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1323" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1323" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1323" t="e">
-        <v>#N/A</v>
+      <c r="F1323" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1324">
@@ -48892,17 +48895,17 @@
       <c r="E1324" t="s">
         <v>3442</v>
       </c>
-      <c r="F1324" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1324" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1324" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1324" t="e">
-        <v>#N/A</v>
+      <c r="F1324" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>3446</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1325">
@@ -48921,17 +48924,17 @@
       <c r="E1325" t="s">
         <v>3442</v>
       </c>
-      <c r="F1325" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1325" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1325" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1325" t="e">
-        <v>#N/A</v>
+      <c r="F1325" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1326">
@@ -48950,17 +48953,17 @@
       <c r="E1326" t="s">
         <v>3442</v>
       </c>
-      <c r="F1326" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1326" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1326" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1326" t="e">
-        <v>#N/A</v>
+      <c r="F1326" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>3450</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1327">
@@ -48979,17 +48982,17 @@
       <c r="E1327" t="s">
         <v>3442</v>
       </c>
-      <c r="F1327" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1327" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1327" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1327" t="e">
-        <v>#N/A</v>
+      <c r="F1327" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1328">
@@ -49008,17 +49011,17 @@
       <c r="E1328" t="s">
         <v>3442</v>
       </c>
-      <c r="F1328" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1328" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1328" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1328" t="e">
-        <v>#N/A</v>
+      <c r="F1328" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1329">
@@ -49037,17 +49040,17 @@
       <c r="E1329" t="s">
         <v>3442</v>
       </c>
-      <c r="F1329" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1329" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1329" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1329" t="e">
-        <v>#N/A</v>
+      <c r="F1329" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1330">
@@ -49066,17 +49069,17 @@
       <c r="E1330" t="s">
         <v>3442</v>
       </c>
-      <c r="F1330" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1330" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1330" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1330" t="e">
-        <v>#N/A</v>
+      <c r="F1330" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1331">
@@ -49095,17 +49098,17 @@
       <c r="E1331" t="s">
         <v>3442</v>
       </c>
-      <c r="F1331" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1331" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1331" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1331" t="e">
-        <v>#N/A</v>
+      <c r="F1331" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1332">
@@ -49124,17 +49127,17 @@
       <c r="E1332" t="s">
         <v>3442</v>
       </c>
-      <c r="F1332" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1332" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1332" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1332" t="e">
-        <v>#N/A</v>
+      <c r="F1332" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1333">
@@ -49153,17 +49156,17 @@
       <c r="E1333" t="s">
         <v>3442</v>
       </c>
-      <c r="F1333" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1333" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1333" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1333" t="e">
-        <v>#N/A</v>
+      <c r="F1333" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>3465</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1334">
@@ -49182,17 +49185,17 @@
       <c r="E1334" t="s">
         <v>3442</v>
       </c>
-      <c r="F1334" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1334" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1334" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1334" t="e">
-        <v>#N/A</v>
+      <c r="F1334" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G1334" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1335">
@@ -49211,17 +49214,17 @@
       <c r="E1335" t="s">
         <v>3442</v>
       </c>
-      <c r="F1335" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1335" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1335" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1335" t="e">
-        <v>#N/A</v>
+      <c r="F1335" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1336">
@@ -49240,17 +49243,17 @@
       <c r="E1336" t="s">
         <v>3442</v>
       </c>
-      <c r="F1336" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1336" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1336" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1336" t="e">
-        <v>#N/A</v>
+      <c r="F1336" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1337">
@@ -49269,17 +49272,17 @@
       <c r="E1337" t="s">
         <v>3442</v>
       </c>
-      <c r="F1337" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1337" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1337" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1337" t="e">
-        <v>#N/A</v>
+      <c r="F1337" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>1675</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1338">
@@ -49298,17 +49301,17 @@
       <c r="E1338" t="s">
         <v>3442</v>
       </c>
-      <c r="F1338" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1338" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1338" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1338" t="e">
-        <v>#N/A</v>
+      <c r="F1338" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1339">
@@ -49327,17 +49330,17 @@
       <c r="E1339" t="s">
         <v>3442</v>
       </c>
-      <c r="F1339" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1339" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1339" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1339" t="e">
-        <v>#N/A</v>
+      <c r="F1339" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1340">
@@ -49356,17 +49359,17 @@
       <c r="E1340" t="s">
         <v>3442</v>
       </c>
-      <c r="F1340" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1340" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1340" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1340" t="e">
-        <v>#N/A</v>
+      <c r="F1340" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1341">
@@ -49385,17 +49388,17 @@
       <c r="E1341" t="s">
         <v>3442</v>
       </c>
-      <c r="F1341" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1341" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1341" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1341" t="e">
-        <v>#N/A</v>
+      <c r="F1341" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1342">
@@ -49414,17 +49417,17 @@
       <c r="E1342" t="s">
         <v>3442</v>
       </c>
-      <c r="F1342" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1342" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1342" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1342" t="e">
-        <v>#N/A</v>
+      <c r="F1342" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1343">
@@ -49443,17 +49446,17 @@
       <c r="E1343" t="s">
         <v>3442</v>
       </c>
-      <c r="F1343" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1343" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1343" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1343" t="e">
-        <v>#N/A</v>
+      <c r="F1343" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1344">
@@ -49472,17 +49475,17 @@
       <c r="E1344" t="s">
         <v>3442</v>
       </c>
-      <c r="F1344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1344" t="e">
-        <v>#N/A</v>
+      <c r="F1344" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1345">
@@ -49501,17 +49504,17 @@
       <c r="E1345" t="s">
         <v>3442</v>
       </c>
-      <c r="F1345" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1345" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1345" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1345" t="e">
-        <v>#N/A</v>
+      <c r="F1345" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G1345" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1346">
@@ -49530,17 +49533,17 @@
       <c r="E1346" t="s">
         <v>3442</v>
       </c>
-      <c r="F1346" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1346" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1346" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1346" t="e">
-        <v>#N/A</v>
+      <c r="F1346" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1347">
@@ -49559,17 +49562,17 @@
       <c r="E1347" t="s">
         <v>3442</v>
       </c>
-      <c r="F1347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1347" t="e">
-        <v>#N/A</v>
+      <c r="F1347" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1348">
@@ -49588,17 +49591,17 @@
       <c r="E1348" t="s">
         <v>3442</v>
       </c>
-      <c r="F1348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1348" t="e">
-        <v>#N/A</v>
+      <c r="F1348" t="s">
+        <v>1691</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1349">
@@ -49617,17 +49620,17 @@
       <c r="E1349" t="s">
         <v>3442</v>
       </c>
-      <c r="F1349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1349" t="e">
-        <v>#N/A</v>
+      <c r="F1349" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>3465</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1350">
@@ -49646,17 +49649,17 @@
       <c r="E1350" t="s">
         <v>3442</v>
       </c>
-      <c r="F1350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1350" t="e">
-        <v>#N/A</v>
+      <c r="F1350" t="s">
+        <v>1693</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1351">
@@ -49675,17 +49678,17 @@
       <c r="E1351" t="s">
         <v>3442</v>
       </c>
-      <c r="F1351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1351" t="e">
-        <v>#N/A</v>
+      <c r="F1351" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G1351" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1352">
@@ -49704,17 +49707,17 @@
       <c r="E1352" t="s">
         <v>3442</v>
       </c>
-      <c r="F1352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1352" t="e">
-        <v>#N/A</v>
+      <c r="F1352" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G1352" t="s">
+        <v>1590</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1353">
@@ -49733,17 +49736,17 @@
       <c r="E1353" t="s">
         <v>3442</v>
       </c>
-      <c r="F1353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1353" t="e">
-        <v>#N/A</v>
+      <c r="F1353" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1354">
@@ -49762,17 +49765,17 @@
       <c r="E1354" t="s">
         <v>3442</v>
       </c>
-      <c r="F1354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1354" t="e">
-        <v>#N/A</v>
+      <c r="F1354" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1355">
@@ -49791,17 +49794,17 @@
       <c r="E1355" t="s">
         <v>3442</v>
       </c>
-      <c r="F1355" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1355" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1355" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1355" t="e">
-        <v>#N/A</v>
+      <c r="F1355" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1356">
@@ -49820,17 +49823,17 @@
       <c r="E1356" t="s">
         <v>3442</v>
       </c>
-      <c r="F1356" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1356" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1356" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1356" t="e">
-        <v>#N/A</v>
+      <c r="F1356" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1357">
@@ -49849,17 +49852,17 @@
       <c r="E1357" t="s">
         <v>3442</v>
       </c>
-      <c r="F1357" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1357" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1357" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1357" t="e">
-        <v>#N/A</v>
+      <c r="F1357" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1358">
@@ -49878,17 +49881,17 @@
       <c r="E1358" t="s">
         <v>3442</v>
       </c>
-      <c r="F1358" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1358" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1358" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1358" t="e">
-        <v>#N/A</v>
+      <c r="F1358" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1359">
@@ -49907,17 +49910,17 @@
       <c r="E1359" t="s">
         <v>3442</v>
       </c>
-      <c r="F1359" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1359" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1359" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1359" t="e">
-        <v>#N/A</v>
+      <c r="F1359" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1360">
@@ -49936,17 +49939,17 @@
       <c r="E1360" t="s">
         <v>3442</v>
       </c>
-      <c r="F1360" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1360" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1360" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1360" t="e">
-        <v>#N/A</v>
+      <c r="F1360" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H1360" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1361">
@@ -49965,17 +49968,17 @@
       <c r="E1361" t="s">
         <v>3442</v>
       </c>
-      <c r="F1361" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1361" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1361" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1361" t="e">
-        <v>#N/A</v>
+      <c r="F1361" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G1361" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H1361" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1362">
@@ -49994,17 +49997,17 @@
       <c r="E1362" t="s">
         <v>3442</v>
       </c>
-      <c r="F1362" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1362" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1362" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1362" t="e">
-        <v>#N/A</v>
+      <c r="F1362" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G1362" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H1362" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1363">
@@ -50023,17 +50026,17 @@
       <c r="E1363" t="s">
         <v>3442</v>
       </c>
-      <c r="F1363" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1363" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1363" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1363" t="e">
-        <v>#N/A</v>
+      <c r="F1363" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>1703</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1364">
@@ -50052,17 +50055,17 @@
       <c r="E1364" t="s">
         <v>3442</v>
       </c>
-      <c r="F1364" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1364" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1364" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1364" t="e">
-        <v>#N/A</v>
+      <c r="F1364" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G1364" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H1364" t="s">
+        <v>3454</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1365">
@@ -50081,17 +50084,17 @@
       <c r="E1365" t="s">
         <v>3442</v>
       </c>
-      <c r="F1365" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1365" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1365" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1365" t="e">
-        <v>#N/A</v>
+      <c r="F1365" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G1365" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1366">
@@ -50110,17 +50113,17 @@
       <c r="E1366" t="s">
         <v>3442</v>
       </c>
-      <c r="F1366" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1366" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1366" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1366" t="e">
-        <v>#N/A</v>
+      <c r="F1366" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1367">
@@ -50139,17 +50142,17 @@
       <c r="E1367" t="s">
         <v>3442</v>
       </c>
-      <c r="F1367" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1367" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1367" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1367" t="e">
-        <v>#N/A</v>
+      <c r="F1367" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1368">
@@ -50168,17 +50171,17 @@
       <c r="E1368" t="s">
         <v>3442</v>
       </c>
-      <c r="F1368" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1368" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1368" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1368" t="e">
-        <v>#N/A</v>
+      <c r="F1368" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G1368" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1369">
@@ -50197,17 +50200,17 @@
       <c r="E1369" t="s">
         <v>3442</v>
       </c>
-      <c r="F1369" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1369" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1369" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1369" t="e">
-        <v>#N/A</v>
+      <c r="F1369" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G1369" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1370">
@@ -50226,17 +50229,17 @@
       <c r="E1370" t="s">
         <v>3442</v>
       </c>
-      <c r="F1370" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1370" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1370" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1370" t="e">
-        <v>#N/A</v>
+      <c r="F1370" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>1858</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1371">
@@ -50255,17 +50258,17 @@
       <c r="E1371" t="s">
         <v>3442</v>
       </c>
-      <c r="F1371" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1371" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1371" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1371" t="e">
-        <v>#N/A</v>
+      <c r="F1371" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1372">
@@ -50284,17 +50287,17 @@
       <c r="E1372" t="s">
         <v>3442</v>
       </c>
-      <c r="F1372" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1372" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1372" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1372" t="e">
-        <v>#N/A</v>
+      <c r="F1372" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H1372" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1373">
@@ -50313,17 +50316,17 @@
       <c r="E1373" t="s">
         <v>3442</v>
       </c>
-      <c r="F1373" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1373" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1373" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1373" t="e">
-        <v>#N/A</v>
+      <c r="F1373" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1374">
@@ -50342,17 +50345,17 @@
       <c r="E1374" t="s">
         <v>3442</v>
       </c>
-      <c r="F1374" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1374" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1374" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1374" t="e">
-        <v>#N/A</v>
+      <c r="F1374" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1375">
@@ -50371,17 +50374,17 @@
       <c r="E1375" t="s">
         <v>3442</v>
       </c>
-      <c r="F1375" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1375" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1375" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1375" t="e">
-        <v>#N/A</v>
+      <c r="F1375" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1376">
@@ -50400,17 +50403,17 @@
       <c r="E1376" t="s">
         <v>3442</v>
       </c>
-      <c r="F1376" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1376" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1376" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1376" t="e">
-        <v>#N/A</v>
+      <c r="F1376" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>1879</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1377">
@@ -50429,17 +50432,17 @@
       <c r="E1377" t="s">
         <v>3442</v>
       </c>
-      <c r="F1377" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1377" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1377" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1377" t="e">
-        <v>#N/A</v>
+      <c r="F1377" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1378">
@@ -50458,17 +50461,17 @@
       <c r="E1378" t="s">
         <v>3442</v>
       </c>
-      <c r="F1378" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1378" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1378" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1378" t="e">
-        <v>#N/A</v>
+      <c r="F1378" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>3449</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1379">
@@ -50487,17 +50490,17 @@
       <c r="E1379" t="s">
         <v>3442</v>
       </c>
-      <c r="F1379" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1379" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1379" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1379" t="e">
-        <v>#N/A</v>
+      <c r="F1379" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G1379" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1380">
@@ -50516,17 +50519,17 @@
       <c r="E1380" t="s">
         <v>3442</v>
       </c>
-      <c r="F1380" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1380" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1380" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1380" t="e">
-        <v>#N/A</v>
+      <c r="F1380" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G1380" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H1380" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1381">
@@ -50545,17 +50548,17 @@
       <c r="E1381" t="s">
         <v>3442</v>
       </c>
-      <c r="F1381" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1381" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1381" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1381" t="e">
-        <v>#N/A</v>
+      <c r="F1381" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G1381" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1382">
@@ -50574,17 +50577,17 @@
       <c r="E1382" t="s">
         <v>3442</v>
       </c>
-      <c r="F1382" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1382" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1382" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1382" t="e">
-        <v>#N/A</v>
+      <c r="F1382" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1382" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1383">
@@ -50603,17 +50606,17 @@
       <c r="E1383" t="s">
         <v>3442</v>
       </c>
-      <c r="F1383" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1383" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1383" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1383" t="e">
-        <v>#N/A</v>
+      <c r="F1383" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1384">
@@ -50632,17 +50635,17 @@
       <c r="E1384" t="s">
         <v>3442</v>
       </c>
-      <c r="F1384" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1384" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1384" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1384" t="e">
-        <v>#N/A</v>
+      <c r="F1384" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1385">
@@ -50661,17 +50664,17 @@
       <c r="E1385" t="s">
         <v>3442</v>
       </c>
-      <c r="F1385" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1385" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1385" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1385" t="e">
-        <v>#N/A</v>
+      <c r="F1385" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>3465</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1386">
@@ -50690,17 +50693,17 @@
       <c r="E1386" t="s">
         <v>3442</v>
       </c>
-      <c r="F1386" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1386" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1386" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1386" t="e">
-        <v>#N/A</v>
+      <c r="F1386" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>3459</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1387">
@@ -50719,17 +50722,17 @@
       <c r="E1387" t="s">
         <v>3442</v>
       </c>
-      <c r="F1387" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1387" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1387" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1387" t="e">
-        <v>#N/A</v>
+      <c r="F1387" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G1387" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H1387" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1388">
@@ -50748,17 +50751,17 @@
       <c r="E1388" t="s">
         <v>3442</v>
       </c>
-      <c r="F1388" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1388" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1388" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1388" t="e">
-        <v>#N/A</v>
+      <c r="F1388" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G1388" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1389">
@@ -50777,17 +50780,17 @@
       <c r="E1389" t="s">
         <v>3442</v>
       </c>
-      <c r="F1389" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1389" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1389" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1389" t="e">
-        <v>#N/A</v>
+      <c r="F1389" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G1389" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1390">
@@ -50806,17 +50809,17 @@
       <c r="E1390" t="s">
         <v>3442</v>
       </c>
-      <c r="F1390" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1390" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1390" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1390" t="e">
-        <v>#N/A</v>
+      <c r="F1390" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G1390" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1391">
@@ -50835,17 +50838,17 @@
       <c r="E1391" t="s">
         <v>3442</v>
       </c>
-      <c r="F1391" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1391" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1391" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1391" t="e">
-        <v>#N/A</v>
+      <c r="F1391" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G1391" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1392">
@@ -50864,17 +50867,17 @@
       <c r="E1392" t="s">
         <v>3442</v>
       </c>
-      <c r="F1392" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1392" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1392" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1392" t="e">
-        <v>#N/A</v>
+      <c r="F1392" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G1392" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1393">
@@ -50893,17 +50896,17 @@
       <c r="E1393" t="s">
         <v>3442</v>
       </c>
-      <c r="F1393" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1393" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1393" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1393" t="e">
-        <v>#N/A</v>
+      <c r="F1393" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G1393" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>3451</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1394">
@@ -50922,17 +50925,17 @@
       <c r="E1394" t="s">
         <v>3442</v>
       </c>
-      <c r="F1394" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1394" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1394" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1394" t="e">
-        <v>#N/A</v>
+      <c r="F1394" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G1394" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H1394" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1395">
@@ -50951,17 +50954,17 @@
       <c r="E1395" t="s">
         <v>3442</v>
       </c>
-      <c r="F1395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1395" t="e">
-        <v>#N/A</v>
+      <c r="F1395" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G1395" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H1395" t="s">
+        <v>3483</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="1396">
@@ -50980,17 +50983,17 @@
       <c r="E1396" t="s">
         <v>3442</v>
       </c>
-      <c r="F1396" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1396" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1396" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1396" t="e">
-        <v>#N/A</v>
+      <c r="F1396" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G1396" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1397">
@@ -51009,17 +51012,17 @@
       <c r="E1397" t="s">
         <v>3442</v>
       </c>
-      <c r="F1397" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1397" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1397" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1397" t="e">
-        <v>#N/A</v>
+      <c r="F1397" t="s">
+        <v>1615</v>
+      </c>
+      <c r="G1397" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1398">
@@ -51038,17 +51041,17 @@
       <c r="E1398" t="s">
         <v>3442</v>
       </c>
-      <c r="F1398" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1398" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1398" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1398" t="e">
-        <v>#N/A</v>
+      <c r="F1398" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G1398" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>3446</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1399">
@@ -51067,17 +51070,17 @@
       <c r="E1399" t="s">
         <v>3442</v>
       </c>
-      <c r="F1399" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1399" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1399" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1399" t="e">
-        <v>#N/A</v>
+      <c r="F1399" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G1399" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H1399" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1400">
@@ -51096,17 +51099,17 @@
       <c r="E1400" t="s">
         <v>3442</v>
       </c>
-      <c r="F1400" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1400" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1400" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1400" t="e">
-        <v>#N/A</v>
+      <c r="F1400" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G1400" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1401">
@@ -51125,17 +51128,17 @@
       <c r="E1401" t="s">
         <v>3442</v>
       </c>
-      <c r="F1401" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1401" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1401" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1401" t="e">
-        <v>#N/A</v>
+      <c r="F1401" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G1401" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>3451</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1402">
@@ -51154,17 +51157,17 @@
       <c r="E1402" t="s">
         <v>3442</v>
       </c>
-      <c r="F1402" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1402" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1402" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1402" t="e">
-        <v>#N/A</v>
+      <c r="F1402" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G1402" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1403">
@@ -51183,17 +51186,17 @@
       <c r="E1403" t="s">
         <v>3442</v>
       </c>
-      <c r="F1403" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1403" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1403" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1403" t="e">
-        <v>#N/A</v>
+      <c r="F1403" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G1403" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1404">
@@ -51212,17 +51215,17 @@
       <c r="E1404" t="s">
         <v>3442</v>
       </c>
-      <c r="F1404" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1404" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1404" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1404" t="e">
-        <v>#N/A</v>
+      <c r="F1404" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G1404" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1405">
@@ -51241,17 +51244,17 @@
       <c r="E1405" t="s">
         <v>3442</v>
       </c>
-      <c r="F1405" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1405" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1405" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1405" t="e">
-        <v>#N/A</v>
+      <c r="F1405" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G1405" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H1405" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1406">
@@ -51270,17 +51273,17 @@
       <c r="E1406" t="s">
         <v>3442</v>
       </c>
-      <c r="F1406" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1406" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1406" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1406" t="e">
-        <v>#N/A</v>
+      <c r="F1406" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G1406" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1407">
@@ -51299,17 +51302,17 @@
       <c r="E1407" t="s">
         <v>3442</v>
       </c>
-      <c r="F1407" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1407" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1407" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1407" t="e">
-        <v>#N/A</v>
+      <c r="F1407" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G1407" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1408">
@@ -51328,17 +51331,17 @@
       <c r="E1408" t="s">
         <v>3442</v>
       </c>
-      <c r="F1408" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1408" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1408" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1408" t="e">
-        <v>#N/A</v>
+      <c r="F1408" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G1408" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>3450</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1409">
@@ -51357,17 +51360,17 @@
       <c r="E1409" t="s">
         <v>3442</v>
       </c>
-      <c r="F1409" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1409" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1409" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1409" t="e">
-        <v>#N/A</v>
+      <c r="F1409" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G1409" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1410">
@@ -51386,17 +51389,17 @@
       <c r="E1410" t="s">
         <v>3442</v>
       </c>
-      <c r="F1410" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1410" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1410" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1410" t="e">
-        <v>#N/A</v>
+      <c r="F1410" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1410" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1411">
@@ -51415,17 +51418,17 @@
       <c r="E1411" t="s">
         <v>3442</v>
       </c>
-      <c r="F1411" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1411" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1411" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1411" t="e">
-        <v>#N/A</v>
+      <c r="F1411" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G1411" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>3446</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1412">
@@ -51444,17 +51447,17 @@
       <c r="E1412" t="s">
         <v>3442</v>
       </c>
-      <c r="F1412" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1412" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1412" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1412" t="e">
-        <v>#N/A</v>
+      <c r="F1412" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G1412" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1413">
@@ -51473,17 +51476,17 @@
       <c r="E1413" t="s">
         <v>3442</v>
       </c>
-      <c r="F1413" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1413" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1413" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1413" t="e">
-        <v>#N/A</v>
+      <c r="F1413" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1414">
@@ -51502,17 +51505,17 @@
       <c r="E1414" t="s">
         <v>3442</v>
       </c>
-      <c r="F1414" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1414" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1414" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1414" t="e">
-        <v>#N/A</v>
+      <c r="F1414" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1415">
@@ -51531,17 +51534,17 @@
       <c r="E1415" t="s">
         <v>3442</v>
       </c>
-      <c r="F1415" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1415" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1415" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1415" t="e">
-        <v>#N/A</v>
+      <c r="F1415" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>3454</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1416">
@@ -51560,17 +51563,17 @@
       <c r="E1416" t="s">
         <v>3442</v>
       </c>
-      <c r="F1416" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1416" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1416" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1416" t="e">
-        <v>#N/A</v>
+      <c r="F1416" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G1416" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1417">
@@ -51589,17 +51592,17 @@
       <c r="E1417" t="s">
         <v>3442</v>
       </c>
-      <c r="F1417" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1417" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1417" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1417" t="e">
-        <v>#N/A</v>
+      <c r="F1417" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>1806</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1418">
@@ -51618,17 +51621,17 @@
       <c r="E1418" t="s">
         <v>3442</v>
       </c>
-      <c r="F1418" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1418" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1418" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1418" t="e">
-        <v>#N/A</v>
+      <c r="F1418" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G1418" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1419">
@@ -51647,17 +51650,17 @@
       <c r="E1419" t="s">
         <v>3442</v>
       </c>
-      <c r="F1419" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1419" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1419" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1419" t="e">
-        <v>#N/A</v>
+      <c r="F1419" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G1419" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1420">
@@ -51676,17 +51679,17 @@
       <c r="E1420" t="s">
         <v>3442</v>
       </c>
-      <c r="F1420" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1420" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1420" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1420" t="e">
-        <v>#N/A</v>
+      <c r="F1420" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G1420" t="s">
+        <v>1876</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1421">
@@ -51705,17 +51708,17 @@
       <c r="E1421" t="s">
         <v>3442</v>
       </c>
-      <c r="F1421" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1421" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1421" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1421" t="e">
-        <v>#N/A</v>
+      <c r="F1421" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G1421" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1422">
@@ -51734,17 +51737,17 @@
       <c r="E1422" t="s">
         <v>3442</v>
       </c>
-      <c r="F1422" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1422" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1422" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1422" t="e">
-        <v>#N/A</v>
+      <c r="F1422" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G1422" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1423">
@@ -51763,17 +51766,17 @@
       <c r="E1423" t="s">
         <v>3442</v>
       </c>
-      <c r="F1423" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1423" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1423" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1423" t="e">
-        <v>#N/A</v>
+      <c r="F1423" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G1423" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>3454</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1424">
@@ -51792,17 +51795,17 @@
       <c r="E1424" t="s">
         <v>3442</v>
       </c>
-      <c r="F1424" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1424" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1424" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1424" t="e">
-        <v>#N/A</v>
+      <c r="F1424" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G1424" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1425">
@@ -51821,17 +51824,17 @@
       <c r="E1425" t="s">
         <v>3442</v>
       </c>
-      <c r="F1425" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1425" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1425" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1425" t="e">
-        <v>#N/A</v>
+      <c r="F1425" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G1425" t="s">
+        <v>1813</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>3454</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1426">
@@ -51850,17 +51853,17 @@
       <c r="E1426" t="s">
         <v>3443</v>
       </c>
-      <c r="F1426" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1426" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1426" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1426" t="e">
-        <v>#N/A</v>
+      <c r="F1426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G1426" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1427">
@@ -51879,17 +51882,17 @@
       <c r="E1427" t="s">
         <v>3443</v>
       </c>
-      <c r="F1427" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1427" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1427" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1427" t="e">
-        <v>#N/A</v>
+      <c r="F1427" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G1427" t="s">
+        <v>1543</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1428">
@@ -51908,17 +51911,17 @@
       <c r="E1428" t="s">
         <v>3443</v>
       </c>
-      <c r="F1428" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1428" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1428" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1428" t="e">
-        <v>#N/A</v>
+      <c r="F1428" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G1428" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1429">
@@ -51937,17 +51940,17 @@
       <c r="E1429" t="s">
         <v>3443</v>
       </c>
-      <c r="F1429" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1429" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1429" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1429" t="e">
-        <v>#N/A</v>
+      <c r="F1429" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G1429" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>3450</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1430">
@@ -51966,17 +51969,17 @@
       <c r="E1430" t="s">
         <v>3443</v>
       </c>
-      <c r="F1430" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1430" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1430" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1430" t="e">
-        <v>#N/A</v>
+      <c r="F1430" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G1430" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>3451</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1431">
@@ -51995,17 +51998,17 @@
       <c r="E1431" t="s">
         <v>3443</v>
       </c>
-      <c r="F1431" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1431" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1431" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1431" t="e">
-        <v>#N/A</v>
+      <c r="F1431" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G1431" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1432">
@@ -52024,17 +52027,17 @@
       <c r="E1432" t="s">
         <v>3443</v>
       </c>
-      <c r="F1432" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1432" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1432" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1432" t="e">
-        <v>#N/A</v>
+      <c r="F1432" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G1432" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>3451</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1433">
@@ -52053,17 +52056,17 @@
       <c r="E1433" t="s">
         <v>3443</v>
       </c>
-      <c r="F1433" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1433" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1433" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1433" t="e">
-        <v>#N/A</v>
+      <c r="F1433" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>3451</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1434">
@@ -52082,17 +52085,17 @@
       <c r="E1434" t="s">
         <v>3443</v>
       </c>
-      <c r="F1434" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1434" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1434" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1434" t="e">
-        <v>#N/A</v>
+      <c r="F1434" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1435">
@@ -52111,17 +52114,17 @@
       <c r="E1435" t="s">
         <v>3443</v>
       </c>
-      <c r="F1435" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1435" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1435" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1435" t="e">
-        <v>#N/A</v>
+      <c r="F1435" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1436">
@@ -52140,17 +52143,17 @@
       <c r="E1436" t="s">
         <v>3443</v>
       </c>
-      <c r="F1436" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1436" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1436" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1436" t="e">
-        <v>#N/A</v>
+      <c r="F1436" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G1436" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1437">
@@ -52169,17 +52172,17 @@
       <c r="E1437" t="s">
         <v>3443</v>
       </c>
-      <c r="F1437" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1437" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1437" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1437" t="e">
-        <v>#N/A</v>
+      <c r="F1437" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G1437" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1438">
@@ -52198,17 +52201,17 @@
       <c r="E1438" t="s">
         <v>3443</v>
       </c>
-      <c r="F1438" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1438" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1438" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1438" t="e">
-        <v>#N/A</v>
+      <c r="F1438" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G1438" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1439">
@@ -52227,17 +52230,17 @@
       <c r="E1439" t="s">
         <v>3443</v>
       </c>
-      <c r="F1439" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1439" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1439" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1439" t="e">
-        <v>#N/A</v>
+      <c r="F1439" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G1439" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1440">
@@ -52256,17 +52259,17 @@
       <c r="E1440" t="s">
         <v>3443</v>
       </c>
-      <c r="F1440" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1440" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1440" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1440" t="e">
-        <v>#N/A</v>
+      <c r="F1440" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1441">
@@ -52285,17 +52288,17 @@
       <c r="E1441" t="s">
         <v>3443</v>
       </c>
-      <c r="F1441" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1441" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1441" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1441" t="e">
-        <v>#N/A</v>
+      <c r="F1441" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G1441" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1442">
@@ -52314,17 +52317,17 @@
       <c r="E1442" t="s">
         <v>3443</v>
       </c>
-      <c r="F1442" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1442" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1442" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1442" t="e">
-        <v>#N/A</v>
+      <c r="F1442" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>3446</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1443">
@@ -52343,17 +52346,17 @@
       <c r="E1443" t="s">
         <v>3443</v>
       </c>
-      <c r="F1443" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1443" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1443" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1443" t="e">
-        <v>#N/A</v>
+      <c r="F1443" t="s">
+        <v>1737</v>
+      </c>
+      <c r="G1443" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>3459</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1444">
@@ -52372,17 +52375,17 @@
       <c r="E1444" t="s">
         <v>3443</v>
       </c>
-      <c r="F1444" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1444" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1444" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1444" t="e">
-        <v>#N/A</v>
+      <c r="F1444" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G1444" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>3450</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1445">
@@ -52401,17 +52404,17 @@
       <c r="E1445" t="s">
         <v>3443</v>
       </c>
-      <c r="F1445" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1445" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1445" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1445" t="e">
-        <v>#N/A</v>
+      <c r="F1445" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1446">
@@ -52430,17 +52433,17 @@
       <c r="E1446" t="s">
         <v>3443</v>
       </c>
-      <c r="F1446" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1446" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1446" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1446" t="e">
-        <v>#N/A</v>
+      <c r="F1446" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G1446" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1447">
@@ -52459,17 +52462,17 @@
       <c r="E1447" t="s">
         <v>3443</v>
       </c>
-      <c r="F1447" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1447" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1447" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1447" t="e">
-        <v>#N/A</v>
+      <c r="F1447" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G1447" t="s">
+        <v>1890</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1448">
@@ -52488,17 +52491,17 @@
       <c r="E1448" t="s">
         <v>3443</v>
       </c>
-      <c r="F1448" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1448" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1448" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1448" t="e">
-        <v>#N/A</v>
+      <c r="F1448" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G1448" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1449">
@@ -52517,17 +52520,17 @@
       <c r="E1449" t="s">
         <v>3443</v>
       </c>
-      <c r="F1449" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1449" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1449" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1449" t="e">
-        <v>#N/A</v>
+      <c r="F1449" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G1449" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>3471</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1450">
@@ -52546,17 +52549,17 @@
       <c r="E1450" t="s">
         <v>3443</v>
       </c>
-      <c r="F1450" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1450" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1450" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1450" t="e">
-        <v>#N/A</v>
+      <c r="F1450" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G1450" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1451">
@@ -52575,17 +52578,17 @@
       <c r="E1451" t="s">
         <v>3443</v>
       </c>
-      <c r="F1451" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1451" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1451" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1451" t="e">
-        <v>#N/A</v>
+      <c r="F1451" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>1862</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1452">
@@ -52604,17 +52607,17 @@
       <c r="E1452" t="s">
         <v>3443</v>
       </c>
-      <c r="F1452" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1452" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1452" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1452" t="e">
-        <v>#N/A</v>
+      <c r="F1452" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G1452" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1453">
@@ -52633,17 +52636,17 @@
       <c r="E1453" t="s">
         <v>3443</v>
       </c>
-      <c r="F1453" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1453" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1453" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1453" t="e">
-        <v>#N/A</v>
+      <c r="F1453" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G1453" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1454">
@@ -52662,17 +52665,17 @@
       <c r="E1454" t="s">
         <v>3443</v>
       </c>
-      <c r="F1454" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1454" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1454" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1454" t="e">
-        <v>#N/A</v>
+      <c r="F1454" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G1454" t="s">
+        <v>1885</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1455">
@@ -52691,17 +52694,17 @@
       <c r="E1455" t="s">
         <v>3443</v>
       </c>
-      <c r="F1455" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1455" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1455" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1455" t="e">
-        <v>#N/A</v>
+      <c r="F1455" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G1455" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1456">
@@ -52720,17 +52723,17 @@
       <c r="E1456" t="s">
         <v>3443</v>
       </c>
-      <c r="F1456" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1456" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1456" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1456" t="e">
-        <v>#N/A</v>
+      <c r="F1456" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G1456" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1457">
@@ -52749,17 +52752,17 @@
       <c r="E1457" t="s">
         <v>3443</v>
       </c>
-      <c r="F1457" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1457" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1457" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1457" t="e">
-        <v>#N/A</v>
+      <c r="F1457" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G1457" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1458">
@@ -52778,17 +52781,17 @@
       <c r="E1458" t="s">
         <v>3443</v>
       </c>
-      <c r="F1458" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1458" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1458" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1458" t="e">
-        <v>#N/A</v>
+      <c r="F1458" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G1458" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>3455</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1459">
@@ -52807,17 +52810,17 @@
       <c r="E1459" t="s">
         <v>3443</v>
       </c>
-      <c r="F1459" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1459" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1459" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1459" t="e">
-        <v>#N/A</v>
+      <c r="F1459" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G1459" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H1459" t="s">
+        <v>3472</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1460">
@@ -52836,17 +52839,17 @@
       <c r="E1460" t="s">
         <v>3443</v>
       </c>
-      <c r="F1460" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1460" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1460" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1460" t="e">
-        <v>#N/A</v>
+      <c r="F1460" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G1460" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H1460" t="s">
+        <v>3459</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1461">
@@ -52865,17 +52868,17 @@
       <c r="E1461" t="s">
         <v>3443</v>
       </c>
-      <c r="F1461" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1461" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1461" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1461" t="e">
-        <v>#N/A</v>
+      <c r="F1461" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G1461" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H1461" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1462">
@@ -52894,17 +52897,17 @@
       <c r="E1462" t="s">
         <v>3443</v>
       </c>
-      <c r="F1462" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1462" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1462" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1462" t="e">
-        <v>#N/A</v>
+      <c r="F1462" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G1462" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1463">
@@ -52923,17 +52926,17 @@
       <c r="E1463" t="s">
         <v>3443</v>
       </c>
-      <c r="F1463" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1463" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1463" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1463" t="e">
-        <v>#N/A</v>
+      <c r="F1463" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G1463" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1464">
@@ -52952,17 +52955,17 @@
       <c r="E1464" t="s">
         <v>3443</v>
       </c>
-      <c r="F1464" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1464" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1464" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1464" t="e">
-        <v>#N/A</v>
+      <c r="F1464" t="s">
+        <v>1618</v>
+      </c>
+      <c r="G1464" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H1464" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1465">
@@ -52981,17 +52984,17 @@
       <c r="E1465" t="s">
         <v>3443</v>
       </c>
-      <c r="F1465" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1465" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1465" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1465" t="e">
-        <v>#N/A</v>
+      <c r="F1465" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G1465" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H1465" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1466">
@@ -53010,17 +53013,17 @@
       <c r="E1466" t="s">
         <v>3443</v>
       </c>
-      <c r="F1466" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1466" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1466" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1466" t="e">
-        <v>#N/A</v>
+      <c r="F1466" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G1466" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1467">
@@ -53039,17 +53042,17 @@
       <c r="E1467" t="s">
         <v>3443</v>
       </c>
-      <c r="F1467" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1467" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1467" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1467" t="e">
-        <v>#N/A</v>
+      <c r="F1467" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G1467" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1468">
@@ -53068,17 +53071,17 @@
       <c r="E1468" t="s">
         <v>3443</v>
       </c>
-      <c r="F1468" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1468" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1468" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1468" t="e">
-        <v>#N/A</v>
+      <c r="F1468" t="s">
+        <v>1718</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>3459</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1469">
@@ -53097,17 +53100,17 @@
       <c r="E1469" t="s">
         <v>3443</v>
       </c>
-      <c r="F1469" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1469" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1469" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1469" t="e">
-        <v>#N/A</v>
+      <c r="F1469" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G1469" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>3451</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1470">
@@ -53126,17 +53129,17 @@
       <c r="E1470" t="s">
         <v>3443</v>
       </c>
-      <c r="F1470" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1470" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1470" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1470" t="e">
-        <v>#N/A</v>
+      <c r="F1470" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H1470" t="s">
+        <v>3461</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1471">
@@ -53155,17 +53158,17 @@
       <c r="E1471" t="s">
         <v>3443</v>
       </c>
-      <c r="F1471" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1471" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1471" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1471" t="e">
-        <v>#N/A</v>
+      <c r="F1471" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G1471" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H1471" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1472">
@@ -53184,17 +53187,17 @@
       <c r="E1472" t="s">
         <v>3443</v>
       </c>
-      <c r="F1472" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1472" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1472" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1472" t="e">
-        <v>#N/A</v>
+      <c r="F1472" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1472" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H1472" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1473">
@@ -53213,17 +53216,17 @@
       <c r="E1473" t="s">
         <v>3443</v>
       </c>
-      <c r="F1473" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1473" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1473" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1473" t="e">
-        <v>#N/A</v>
+      <c r="F1473" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G1473" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H1473" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1474">
@@ -53242,17 +53245,17 @@
       <c r="E1474" t="s">
         <v>3443</v>
       </c>
-      <c r="F1474" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1474" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1474" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1474" t="e">
-        <v>#N/A</v>
+      <c r="F1474" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G1474" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H1474" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1475">
@@ -53271,17 +53274,17 @@
       <c r="E1475" t="s">
         <v>3443</v>
       </c>
-      <c r="F1475" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1475" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1475" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1475" t="e">
-        <v>#N/A</v>
+      <c r="F1475" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G1475" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H1475" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1476">
@@ -53300,17 +53303,17 @@
       <c r="E1476" t="s">
         <v>3443</v>
       </c>
-      <c r="F1476" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1476" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1476" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1476" t="e">
-        <v>#N/A</v>
+      <c r="F1476" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G1476" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H1476" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1477">
@@ -53329,17 +53332,17 @@
       <c r="E1477" t="s">
         <v>3443</v>
       </c>
-      <c r="F1477" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1477" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1477" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1477" t="e">
-        <v>#N/A</v>
+      <c r="F1477" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G1477" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H1477" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1478">
@@ -53358,17 +53361,17 @@
       <c r="E1478" t="s">
         <v>3443</v>
       </c>
-      <c r="F1478" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1478" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1478" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1478" t="e">
-        <v>#N/A</v>
+      <c r="F1478" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G1478" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1479">
@@ -53387,17 +53390,17 @@
       <c r="E1479" t="s">
         <v>3443</v>
       </c>
-      <c r="F1479" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1479" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1479" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1479" t="e">
-        <v>#N/A</v>
+      <c r="F1479" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>3451</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1480">
@@ -53416,17 +53419,17 @@
       <c r="E1480" t="s">
         <v>3443</v>
       </c>
-      <c r="F1480" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1480" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1480" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1480" t="e">
-        <v>#N/A</v>
+      <c r="F1480" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1481">
@@ -53445,17 +53448,17 @@
       <c r="E1481" t="s">
         <v>3443</v>
       </c>
-      <c r="F1481" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1481" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1481" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1481" t="e">
-        <v>#N/A</v>
+      <c r="F1481" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1482">

--- a/finalscore.xlsx
+++ b/finalscore.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17772" uniqueCount="5015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17961" uniqueCount="5015">
   <si>
     <t>HT</t>
   </si>
@@ -29650,17 +29650,17 @@
       <c r="E502" t="s">
         <v>4922</v>
       </c>
-      <c r="F502" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G502" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H502" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I502" t="e">
-        <v>#N/A</v>
+      <c r="F502" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G502" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H502" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I502" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="503">
@@ -37016,17 +37016,17 @@
       <c r="E756" t="s">
         <v>4930</v>
       </c>
-      <c r="F756" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G756" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H756" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I756" t="e">
-        <v>#N/A</v>
+      <c r="F756" t="s">
+        <v>2455</v>
+      </c>
+      <c r="G756" t="s">
+        <v>2604</v>
+      </c>
+      <c r="H756" t="s">
+        <v>4976</v>
+      </c>
+      <c r="I756" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="757">
@@ -78515,17 +78515,17 @@
       <c r="E2187" t="s">
         <v>4971</v>
       </c>
-      <c r="F2187" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2187" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2187" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2187" t="e">
-        <v>#N/A</v>
+      <c r="F2187" t="s">
+        <v>2291</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>2265</v>
+      </c>
+      <c r="H2187" t="s">
+        <v>4991</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2188">
@@ -78544,17 +78544,17 @@
       <c r="E2188" t="s">
         <v>4971</v>
       </c>
-      <c r="F2188" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2188" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2188" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2188" t="e">
-        <v>#N/A</v>
+      <c r="F2188" t="s">
+        <v>2404</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>2470</v>
+      </c>
+      <c r="H2188" t="s">
+        <v>4977</v>
+      </c>
+      <c r="I2188" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2189">
@@ -78573,17 +78573,17 @@
       <c r="E2189" t="s">
         <v>4971</v>
       </c>
-      <c r="F2189" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2189" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2189" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2189" t="e">
-        <v>#N/A</v>
+      <c r="F2189" t="s">
+        <v>2509</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>2510</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>4982</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2190">
@@ -78602,17 +78602,17 @@
       <c r="E2190" t="s">
         <v>4971</v>
       </c>
-      <c r="F2190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2190" t="e">
-        <v>#N/A</v>
+      <c r="F2190" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>2499</v>
+      </c>
+      <c r="H2190" t="s">
+        <v>4979</v>
+      </c>
+      <c r="I2190" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2191">
@@ -78631,17 +78631,17 @@
       <c r="E2191" t="s">
         <v>4971</v>
       </c>
-      <c r="F2191" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2191" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2191" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2191" t="e">
-        <v>#N/A</v>
+      <c r="F2191" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>2413</v>
+      </c>
+      <c r="H2191" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2191" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2192">
@@ -78660,17 +78660,17 @@
       <c r="E2192" t="s">
         <v>4971</v>
       </c>
-      <c r="F2192" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2192" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2192" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2192" t="e">
-        <v>#N/A</v>
+      <c r="F2192" t="s">
+        <v>2414</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>2602</v>
+      </c>
+      <c r="H2192" t="s">
+        <v>4986</v>
+      </c>
+      <c r="I2192" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2193">
@@ -78689,17 +78689,17 @@
       <c r="E2193" t="s">
         <v>4972</v>
       </c>
-      <c r="F2193" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2193" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2193" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2193" t="e">
-        <v>#N/A</v>
+      <c r="F2193" t="s">
+        <v>2345</v>
+      </c>
+      <c r="G2193" t="s">
+        <v>2343</v>
+      </c>
+      <c r="H2193" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2193" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2194">
@@ -78718,17 +78718,17 @@
       <c r="E2194" t="s">
         <v>4972</v>
       </c>
-      <c r="F2194" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2194" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2194" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2194" t="e">
-        <v>#N/A</v>
+      <c r="F2194" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G2194" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H2194" t="s">
+        <v>4983</v>
+      </c>
+      <c r="I2194" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2195">
@@ -78747,17 +78747,17 @@
       <c r="E2195" t="s">
         <v>4972</v>
       </c>
-      <c r="F2195" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2195" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2195" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2195" t="e">
-        <v>#N/A</v>
+      <c r="F2195" t="s">
+        <v>2455</v>
+      </c>
+      <c r="G2195" t="s">
+        <v>2604</v>
+      </c>
+      <c r="H2195" t="s">
+        <v>4976</v>
+      </c>
+      <c r="I2195" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2196">
@@ -78776,17 +78776,17 @@
       <c r="E2196" t="s">
         <v>4972</v>
       </c>
-      <c r="F2196" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2196" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2196" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2196" t="e">
-        <v>#N/A</v>
+      <c r="F2196" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G2196" t="s">
+        <v>2547</v>
+      </c>
+      <c r="H2196" t="s">
+        <v>4980</v>
+      </c>
+      <c r="I2196" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2197">
@@ -78805,17 +78805,17 @@
       <c r="E2197" t="s">
         <v>4972</v>
       </c>
-      <c r="F2197" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2197" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2197" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2197" t="e">
-        <v>#N/A</v>
+      <c r="F2197" t="s">
+        <v>2635</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>2543</v>
+      </c>
+      <c r="H2197" t="s">
+        <v>4983</v>
+      </c>
+      <c r="I2197" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2198">
@@ -78834,17 +78834,17 @@
       <c r="E2198" t="s">
         <v>4972</v>
       </c>
-      <c r="F2198" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2198" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2198" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2198" t="e">
-        <v>#N/A</v>
+      <c r="F2198" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G2198" t="s">
+        <v>2608</v>
+      </c>
+      <c r="H2198" t="s">
+        <v>4991</v>
+      </c>
+      <c r="I2198" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2199">
@@ -78863,17 +78863,17 @@
       <c r="E2199" t="s">
         <v>4972</v>
       </c>
-      <c r="F2199" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2199" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2199" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2199" t="e">
-        <v>#N/A</v>
+      <c r="F2199" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G2199" t="s">
+        <v>2607</v>
+      </c>
+      <c r="H2199" t="s">
+        <v>4991</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2200">
@@ -78892,17 +78892,17 @@
       <c r="E2200" t="s">
         <v>4972</v>
       </c>
-      <c r="F2200" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2200" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2200" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2200" t="e">
-        <v>#N/A</v>
+      <c r="F2200" t="s">
+        <v>2542</v>
+      </c>
+      <c r="G2200" t="s">
+        <v>2605</v>
+      </c>
+      <c r="H2200" t="s">
+        <v>4977</v>
+      </c>
+      <c r="I2200" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2201">
@@ -78921,17 +78921,17 @@
       <c r="E2201" t="s">
         <v>4972</v>
       </c>
-      <c r="F2201" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2201" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2201" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2201" t="e">
-        <v>#N/A</v>
+      <c r="F2201" t="s">
+        <v>2609</v>
+      </c>
+      <c r="G2201" t="s">
+        <v>2633</v>
+      </c>
+      <c r="H2201" t="s">
+        <v>4988</v>
+      </c>
+      <c r="I2201" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="2202">
@@ -78950,17 +78950,17 @@
       <c r="E2202" t="s">
         <v>4972</v>
       </c>
-      <c r="F2202" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2202" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2202" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2202" t="e">
-        <v>#N/A</v>
+      <c r="F2202" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G2202" t="s">
+        <v>2631</v>
+      </c>
+      <c r="H2202" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2202" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2203">
@@ -78979,17 +78979,17 @@
       <c r="E2203" t="s">
         <v>4972</v>
       </c>
-      <c r="F2203" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2203" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2203" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2203" t="e">
-        <v>#N/A</v>
+      <c r="F2203" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G2203" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H2203" t="s">
+        <v>4983</v>
+      </c>
+      <c r="I2203" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2204">
@@ -79008,17 +79008,17 @@
       <c r="E2204" t="s">
         <v>4972</v>
       </c>
-      <c r="F2204" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2204" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2204" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2204" t="e">
-        <v>#N/A</v>
+      <c r="F2204" t="s">
+        <v>2546</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>2636</v>
+      </c>
+      <c r="H2204" t="s">
+        <v>4991</v>
+      </c>
+      <c r="I2204" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2205">
@@ -79037,17 +79037,17 @@
       <c r="E2205" t="s">
         <v>4972</v>
       </c>
-      <c r="F2205" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2205" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2205" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2205" t="e">
-        <v>#N/A</v>
+      <c r="F2205" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G2205" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H2205" t="s">
+        <v>4978</v>
+      </c>
+      <c r="I2205" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2206">
@@ -79066,17 +79066,17 @@
       <c r="E2206" t="s">
         <v>4972</v>
       </c>
-      <c r="F2206" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2206" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2206" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2206" t="e">
-        <v>#N/A</v>
+      <c r="F2206" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G2206" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H2206" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2206" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2207">
@@ -79095,17 +79095,17 @@
       <c r="E2207" t="s">
         <v>4972</v>
       </c>
-      <c r="F2207" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2207" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2207" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2207" t="e">
-        <v>#N/A</v>
+      <c r="F2207" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H2207" t="s">
+        <v>4983</v>
+      </c>
+      <c r="I2207" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2208">
@@ -79124,17 +79124,17 @@
       <c r="E2208" t="s">
         <v>4972</v>
       </c>
-      <c r="F2208" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2208" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2208" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2208" t="e">
-        <v>#N/A</v>
+      <c r="F2208" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G2208" t="s">
+        <v>2551</v>
+      </c>
+      <c r="H2208" t="s">
+        <v>4991</v>
+      </c>
+      <c r="I2208" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2209">
@@ -79153,17 +79153,17 @@
       <c r="E2209" t="s">
         <v>4972</v>
       </c>
-      <c r="F2209" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2209" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2209" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2209" t="e">
-        <v>#N/A</v>
+      <c r="F2209" t="s">
+        <v>2317</v>
+      </c>
+      <c r="G2209" t="s">
+        <v>2318</v>
+      </c>
+      <c r="H2209" t="s">
+        <v>4982</v>
+      </c>
+      <c r="I2209" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2210">
@@ -79182,17 +79182,17 @@
       <c r="E2210" t="s">
         <v>4972</v>
       </c>
-      <c r="F2210" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2210" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2210" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2210" t="e">
-        <v>#N/A</v>
+      <c r="F2210" t="s">
+        <v>2373</v>
+      </c>
+      <c r="G2210" t="s">
+        <v>2292</v>
+      </c>
+      <c r="H2210" t="s">
+        <v>4977</v>
+      </c>
+      <c r="I2210" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2211">
@@ -79211,17 +79211,17 @@
       <c r="E2211" t="s">
         <v>4972</v>
       </c>
-      <c r="F2211" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2211" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2211" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2211" t="e">
-        <v>#N/A</v>
+      <c r="F2211" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G2211" t="s">
+        <v>2319</v>
+      </c>
+      <c r="H2211" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2211" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2212">
@@ -79240,17 +79240,17 @@
       <c r="E2212" t="s">
         <v>4972</v>
       </c>
-      <c r="F2212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2212" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2212" t="e">
-        <v>#N/A</v>
+      <c r="F2212" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G2212" t="s">
+        <v>2377</v>
+      </c>
+      <c r="H2212" t="s">
+        <v>4991</v>
+      </c>
+      <c r="I2212" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2213">
@@ -79269,17 +79269,17 @@
       <c r="E2213" t="s">
         <v>4972</v>
       </c>
-      <c r="F2213" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2213" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2213" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2213" t="e">
-        <v>#N/A</v>
+      <c r="F2213" t="s">
+        <v>2376</v>
+      </c>
+      <c r="G2213" t="s">
+        <v>2316</v>
+      </c>
+      <c r="H2213" t="s">
+        <v>4977</v>
+      </c>
+      <c r="I2213" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2214">
@@ -79298,17 +79298,17 @@
       <c r="E2214" t="s">
         <v>4972</v>
       </c>
-      <c r="F2214" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2214" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2214" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2214" t="e">
-        <v>#N/A</v>
+      <c r="F2214" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G2214" t="s">
+        <v>2512</v>
+      </c>
+      <c r="H2214" t="s">
+        <v>4991</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2215">
@@ -79327,17 +79327,17 @@
       <c r="E2215" t="s">
         <v>4972</v>
       </c>
-      <c r="F2215" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2215" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2215" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2215" t="e">
-        <v>#N/A</v>
+      <c r="F2215" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G2215" t="s">
+        <v>2560</v>
+      </c>
+      <c r="H2215" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2215" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2216">
@@ -79356,17 +79356,17 @@
       <c r="E2216" t="s">
         <v>4972</v>
       </c>
-      <c r="F2216" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2216" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2216" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2216" t="e">
-        <v>#N/A</v>
+      <c r="F2216" t="s">
+        <v>2511</v>
+      </c>
+      <c r="G2216" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H2216" t="s">
+        <v>4995</v>
+      </c>
+      <c r="I2216" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="2217">
@@ -79385,17 +79385,17 @@
       <c r="E2217" t="s">
         <v>4973</v>
       </c>
-      <c r="F2217" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2217" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2217" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2217" t="e">
-        <v>#N/A</v>
+      <c r="F2217" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G2217" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H2217" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2217" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2218">
@@ -79414,17 +79414,17 @@
       <c r="E2218" t="s">
         <v>4973</v>
       </c>
-      <c r="F2218" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2218" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2218" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2218" t="e">
-        <v>#N/A</v>
+      <c r="F2218" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G2218" t="s">
+        <v>2621</v>
+      </c>
+      <c r="H2218" t="s">
+        <v>4983</v>
+      </c>
+      <c r="I2218" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2219">
@@ -79443,17 +79443,17 @@
       <c r="E2219" t="s">
         <v>4973</v>
       </c>
-      <c r="F2219" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2219" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2219" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2219" t="e">
-        <v>#N/A</v>
+      <c r="F2219" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G2219" t="s">
+        <v>2614</v>
+      </c>
+      <c r="H2219" t="s">
+        <v>4976</v>
+      </c>
+      <c r="I2219" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2220">
@@ -79472,17 +79472,17 @@
       <c r="E2220" t="s">
         <v>4973</v>
       </c>
-      <c r="F2220" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2220" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2220" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2220" t="e">
-        <v>#N/A</v>
+      <c r="F2220" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G2220" t="s">
+        <v>2549</v>
+      </c>
+      <c r="H2220" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2220" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2221">
@@ -79501,17 +79501,17 @@
       <c r="E2221" t="s">
         <v>4973</v>
       </c>
-      <c r="F2221" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2221" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2221" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2221" t="e">
-        <v>#N/A</v>
+      <c r="F2221" t="s">
+        <v>2596</v>
+      </c>
+      <c r="G2221" t="s">
+        <v>2576</v>
+      </c>
+      <c r="H2221" t="s">
+        <v>4983</v>
+      </c>
+      <c r="I2221" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2222">
@@ -79530,17 +79530,17 @@
       <c r="E2222" t="s">
         <v>4973</v>
       </c>
-      <c r="F2222" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2222" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2222" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2222" t="e">
-        <v>#N/A</v>
+      <c r="F2222" t="s">
+        <v>2550</v>
+      </c>
+      <c r="G2222" t="s">
+        <v>2548</v>
+      </c>
+      <c r="H2222" t="s">
+        <v>4980</v>
+      </c>
+      <c r="I2222" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2223">
@@ -79559,17 +79559,17 @@
       <c r="E2223" t="s">
         <v>4973</v>
       </c>
-      <c r="F2223" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2223" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2223" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2223" t="e">
-        <v>#N/A</v>
+      <c r="F2223" t="s">
+        <v>2615</v>
+      </c>
+      <c r="G2223" t="s">
+        <v>2616</v>
+      </c>
+      <c r="H2223" t="s">
+        <v>4991</v>
+      </c>
+      <c r="I2223" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2224">
@@ -79588,17 +79588,17 @@
       <c r="E2224" t="s">
         <v>4973</v>
       </c>
-      <c r="F2224" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2224" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2224" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2224" t="e">
-        <v>#N/A</v>
+      <c r="F2224" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G2224" t="s">
+        <v>2578</v>
+      </c>
+      <c r="H2224" t="s">
+        <v>4992</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2225">
@@ -79617,17 +79617,17 @@
       <c r="E2225" t="s">
         <v>4973</v>
       </c>
-      <c r="F2225" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2225" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2225" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2225" t="e">
-        <v>#N/A</v>
+      <c r="F2225" t="s">
+        <v>2618</v>
+      </c>
+      <c r="G2225" t="s">
+        <v>2625</v>
+      </c>
+      <c r="H2225" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2226">
@@ -79646,17 +79646,17 @@
       <c r="E2226" t="s">
         <v>4973</v>
       </c>
-      <c r="F2226" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2226" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2226" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2226" t="e">
-        <v>#N/A</v>
+      <c r="F2226" t="s">
+        <v>2313</v>
+      </c>
+      <c r="G2226" t="s">
+        <v>2314</v>
+      </c>
+      <c r="H2226" t="s">
+        <v>5006</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="2227">
@@ -79675,17 +79675,17 @@
       <c r="E2227" t="s">
         <v>4973</v>
       </c>
-      <c r="F2227" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2227" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2227" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2227" t="e">
-        <v>#N/A</v>
+      <c r="F2227" t="s">
+        <v>2401</v>
+      </c>
+      <c r="G2227" t="s">
+        <v>2400</v>
+      </c>
+      <c r="H2227" t="s">
+        <v>4976</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2228">
@@ -79704,17 +79704,17 @@
       <c r="E2228" t="s">
         <v>4973</v>
       </c>
-      <c r="F2228" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2228" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2228" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2228" t="e">
-        <v>#N/A</v>
+      <c r="F2228" t="s">
+        <v>2402</v>
+      </c>
+      <c r="G2228" t="s">
+        <v>2371</v>
+      </c>
+      <c r="H2228" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2229">
@@ -79733,17 +79733,17 @@
       <c r="E2229" t="s">
         <v>4973</v>
       </c>
-      <c r="F2229" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2229" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2229" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2229" t="e">
-        <v>#N/A</v>
+      <c r="F2229" t="s">
+        <v>2290</v>
+      </c>
+      <c r="G2229" t="s">
+        <v>2372</v>
+      </c>
+      <c r="H2229" t="s">
+        <v>4987</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2230">
@@ -79762,17 +79762,17 @@
       <c r="E2230" t="s">
         <v>4973</v>
       </c>
-      <c r="F2230" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2230" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2230" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2230" t="e">
-        <v>#N/A</v>
+      <c r="F2230" t="s">
+        <v>2312</v>
+      </c>
+      <c r="G2230" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H2230" t="s">
+        <v>4987</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2231">
@@ -79791,17 +79791,17 @@
       <c r="E2231" t="s">
         <v>4973</v>
       </c>
-      <c r="F2231" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2231" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2231" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2231" t="e">
-        <v>#N/A</v>
+      <c r="F2231" t="s">
+        <v>2403</v>
+      </c>
+      <c r="G2231" t="s">
+        <v>2315</v>
+      </c>
+      <c r="H2231" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2232">
@@ -79820,17 +79820,17 @@
       <c r="E2232" t="s">
         <v>4973</v>
       </c>
-      <c r="F2232" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2232" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2232" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2232" t="e">
-        <v>#N/A</v>
+      <c r="F2232" t="s">
+        <v>2472</v>
+      </c>
+      <c r="G2232" t="s">
+        <v>2501</v>
+      </c>
+      <c r="H2232" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2233">
@@ -79849,17 +79849,17 @@
       <c r="E2233" t="s">
         <v>4973</v>
       </c>
-      <c r="F2233" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2233" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2233" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2233" t="e">
-        <v>#N/A</v>
+      <c r="F2233" t="s">
+        <v>2628</v>
+      </c>
+      <c r="G2233" t="s">
+        <v>2500</v>
+      </c>
+      <c r="H2233" t="s">
+        <v>4991</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2234">
@@ -79878,17 +79878,17 @@
       <c r="E2234" t="s">
         <v>4973</v>
       </c>
-      <c r="F2234" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2234" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2234" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2234" t="e">
-        <v>#N/A</v>
+      <c r="F2234" t="s">
+        <v>2522</v>
+      </c>
+      <c r="G2234" t="s">
+        <v>2411</v>
+      </c>
+      <c r="H2234" t="s">
+        <v>5005</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="2235">
@@ -79907,17 +79907,17 @@
       <c r="E2235" t="s">
         <v>4973</v>
       </c>
-      <c r="F2235" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2235" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2235" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2235" t="e">
-        <v>#N/A</v>
+      <c r="F2235" t="s">
+        <v>2648</v>
+      </c>
+      <c r="G2235" t="s">
+        <v>2474</v>
+      </c>
+      <c r="H2235" t="s">
+        <v>4982</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2236">
@@ -79936,17 +79936,17 @@
       <c r="E2236" t="s">
         <v>4974</v>
       </c>
-      <c r="F2236" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2236" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2236" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2236" t="e">
-        <v>#N/A</v>
+      <c r="F2236" t="s">
+        <v>2575</v>
+      </c>
+      <c r="G2236" t="s">
+        <v>2573</v>
+      </c>
+      <c r="H2236" t="s">
+        <v>4981</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2237">
@@ -79965,17 +79965,17 @@
       <c r="E2237" t="s">
         <v>4974</v>
       </c>
-      <c r="F2237" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2237" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2237" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2237" t="e">
-        <v>#N/A</v>
+      <c r="F2237" t="s">
+        <v>2639</v>
+      </c>
+      <c r="G2237" t="s">
+        <v>2520</v>
+      </c>
+      <c r="H2237" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2238">
@@ -79994,17 +79994,17 @@
       <c r="E2238" t="s">
         <v>4974</v>
       </c>
-      <c r="F2238" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2238" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2238" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2238" t="e">
-        <v>#N/A</v>
+      <c r="F2238" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G2238" t="s">
+        <v>2627</v>
+      </c>
+      <c r="H2238" t="s">
+        <v>4977</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2239">
@@ -80023,17 +80023,17 @@
       <c r="E2239" t="s">
         <v>4974</v>
       </c>
-      <c r="F2239" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2239" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2239" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2239" t="e">
-        <v>#N/A</v>
+      <c r="F2239" t="s">
+        <v>2603</v>
+      </c>
+      <c r="G2239" t="s">
+        <v>2624</v>
+      </c>
+      <c r="H2239" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2240">
@@ -80052,17 +80052,17 @@
       <c r="E2240" t="s">
         <v>4974</v>
       </c>
-      <c r="F2240" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2240" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2240" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2240" t="e">
-        <v>#N/A</v>
+      <c r="F2240" t="s">
+        <v>2553</v>
+      </c>
+      <c r="G2240" t="s">
+        <v>2626</v>
+      </c>
+      <c r="H2240" t="s">
+        <v>4983</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2241">
@@ -80081,17 +80081,17 @@
       <c r="E2241" t="s">
         <v>4974</v>
       </c>
-      <c r="F2241" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2241" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2241" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2241" t="e">
-        <v>#N/A</v>
+      <c r="F2241" t="s">
+        <v>2640</v>
+      </c>
+      <c r="G2241" t="s">
+        <v>2552</v>
+      </c>
+      <c r="H2241" t="s">
+        <v>4991</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2242">
@@ -80110,17 +80110,17 @@
       <c r="E2242" t="s">
         <v>4974</v>
       </c>
-      <c r="F2242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2242" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2242" t="e">
-        <v>#N/A</v>
+      <c r="F2242" t="s">
+        <v>2581</v>
+      </c>
+      <c r="G2242" t="s">
+        <v>2583</v>
+      </c>
+      <c r="H2242" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2242" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2243">
@@ -80139,17 +80139,17 @@
       <c r="E2243" t="s">
         <v>4974</v>
       </c>
-      <c r="F2243" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2243" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2243" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2243" t="e">
-        <v>#N/A</v>
+      <c r="F2243" t="s">
+        <v>2582</v>
+      </c>
+      <c r="G2243" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H2243" t="s">
+        <v>4980</v>
+      </c>
+      <c r="I2243" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2244">
@@ -80168,17 +80168,17 @@
       <c r="E2244" t="s">
         <v>4974</v>
       </c>
-      <c r="F2244" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2244" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2244" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2244" t="e">
-        <v>#N/A</v>
+      <c r="F2244" t="s">
+        <v>2619</v>
+      </c>
+      <c r="G2244" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H2244" t="s">
+        <v>4980</v>
+      </c>
+      <c r="I2244" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2245">
@@ -80197,17 +80197,17 @@
       <c r="E2245" t="s">
         <v>4974</v>
       </c>
-      <c r="F2245" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2245" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2245" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2245" t="e">
-        <v>#N/A</v>
+      <c r="F2245" t="s">
+        <v>2499</v>
+      </c>
+      <c r="G2245" t="s">
+        <v>2587</v>
+      </c>
+      <c r="H2245" t="s">
+        <v>4980</v>
+      </c>
+      <c r="I2245" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2246">
@@ -80226,17 +80226,17 @@
       <c r="E2246" t="s">
         <v>4974</v>
       </c>
-      <c r="F2246" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2246" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2246" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2246" t="e">
-        <v>#N/A</v>
+      <c r="F2246" t="s">
+        <v>2559</v>
+      </c>
+      <c r="G2246" t="s">
+        <v>2598</v>
+      </c>
+      <c r="H2246" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I2246" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2247">
@@ -80255,17 +80255,17 @@
       <c r="E2247" t="s">
         <v>4974</v>
       </c>
-      <c r="F2247" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2247" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2247" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2247" t="e">
-        <v>#N/A</v>
+      <c r="F2247" t="s">
+        <v>2589</v>
+      </c>
+      <c r="G2247" t="s">
+        <v>2588</v>
+      </c>
+      <c r="H2247" t="s">
+        <v>4987</v>
+      </c>
+      <c r="I2247" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/finalscore.xlsx
+++ b/finalscore.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25115" uniqueCount="6876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25271" uniqueCount="6876">
   <si>
     <t>HT</t>
   </si>
@@ -110923,17 +110923,17 @@
       <c r="E3112" t="s">
         <v>6829</v>
       </c>
-      <c r="F3112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3112" t="e">
-        <v>#N/A</v>
+      <c r="F3112" t="s">
+        <v>3386</v>
+      </c>
+      <c r="G3112" t="s">
+        <v>3384</v>
+      </c>
+      <c r="H3112" t="s">
+        <v>6862</v>
+      </c>
+      <c r="I3112" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3113">
@@ -110952,17 +110952,17 @@
       <c r="E3113" t="s">
         <v>6830</v>
       </c>
-      <c r="F3113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3113" t="e">
-        <v>#N/A</v>
+      <c r="F3113" t="s">
+        <v>3486</v>
+      </c>
+      <c r="G3113" t="s">
+        <v>3341</v>
+      </c>
+      <c r="H3113" t="s">
+        <v>6844</v>
+      </c>
+      <c r="I3113" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3114">
@@ -110981,17 +110981,17 @@
       <c r="E3114" t="s">
         <v>6830</v>
       </c>
-      <c r="F3114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3114" t="e">
-        <v>#N/A</v>
+      <c r="F3114" t="s">
+        <v>3342</v>
+      </c>
+      <c r="G3114" t="s">
+        <v>3339</v>
+      </c>
+      <c r="H3114" t="s">
+        <v>6840</v>
+      </c>
+      <c r="I3114" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3115">
@@ -111010,17 +111010,17 @@
       <c r="E3115" t="s">
         <v>6830</v>
       </c>
-      <c r="F3115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3115" t="e">
-        <v>#N/A</v>
+      <c r="F3115" t="s">
+        <v>3511</v>
+      </c>
+      <c r="G3115" t="s">
+        <v>3454</v>
+      </c>
+      <c r="H3115" t="s">
+        <v>6832</v>
+      </c>
+      <c r="I3115" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3116">
@@ -111039,17 +111039,17 @@
       <c r="E3116" t="s">
         <v>6830</v>
       </c>
-      <c r="F3116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3116" t="e">
-        <v>#N/A</v>
+      <c r="F3116" t="s">
+        <v>3487</v>
+      </c>
+      <c r="G3116" t="s">
+        <v>3338</v>
+      </c>
+      <c r="H3116" t="s">
+        <v>6839</v>
+      </c>
+      <c r="I3116" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3117">
@@ -111068,17 +111068,17 @@
       <c r="E3117" t="s">
         <v>6830</v>
       </c>
-      <c r="F3117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3117" t="e">
-        <v>#N/A</v>
+      <c r="F3117" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G3117" t="s">
+        <v>3453</v>
+      </c>
+      <c r="H3117" t="s">
+        <v>6840</v>
+      </c>
+      <c r="I3117" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3118">
@@ -111097,17 +111097,17 @@
       <c r="E3118" t="s">
         <v>6830</v>
       </c>
-      <c r="F3118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3118" t="e">
-        <v>#N/A</v>
+      <c r="F3118" t="s">
+        <v>3340</v>
+      </c>
+      <c r="G3118" t="s">
+        <v>3449</v>
+      </c>
+      <c r="H3118" t="s">
+        <v>6851</v>
+      </c>
+      <c r="I3118" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3119">
@@ -111126,17 +111126,17 @@
       <c r="E3119" t="s">
         <v>6830</v>
       </c>
-      <c r="F3119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3119" t="e">
-        <v>#N/A</v>
+      <c r="F3119" t="s">
+        <v>3401</v>
+      </c>
+      <c r="G3119" t="s">
+        <v>3247</v>
+      </c>
+      <c r="H3119" t="s">
+        <v>6833</v>
+      </c>
+      <c r="I3119" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3120">
@@ -111155,17 +111155,17 @@
       <c r="E3120" t="s">
         <v>6830</v>
       </c>
-      <c r="F3120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3120" t="e">
-        <v>#N/A</v>
+      <c r="F3120" t="s">
+        <v>3402</v>
+      </c>
+      <c r="G3120" t="s">
+        <v>3308</v>
+      </c>
+      <c r="H3120" t="s">
+        <v>6848</v>
+      </c>
+      <c r="I3120" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3121">
@@ -111184,17 +111184,17 @@
       <c r="E3121" t="s">
         <v>6830</v>
       </c>
-      <c r="F3121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3121" t="e">
-        <v>#N/A</v>
+      <c r="F3121" t="s">
+        <v>3310</v>
+      </c>
+      <c r="G3121" t="s">
+        <v>3311</v>
+      </c>
+      <c r="H3121" t="s">
+        <v>6833</v>
+      </c>
+      <c r="I3121" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3122">
@@ -111213,17 +111213,17 @@
       <c r="E3122" t="s">
         <v>6830</v>
       </c>
-      <c r="F3122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3122" t="e">
-        <v>#N/A</v>
+      <c r="F3122" t="s">
+        <v>3309</v>
+      </c>
+      <c r="G3122" t="s">
+        <v>3306</v>
+      </c>
+      <c r="H3122" t="s">
+        <v>6856</v>
+      </c>
+      <c r="I3122" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3123">
@@ -111242,17 +111242,17 @@
       <c r="E3123" t="s">
         <v>6830</v>
       </c>
-      <c r="F3123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3123" t="e">
-        <v>#N/A</v>
+      <c r="F3123" t="s">
+        <v>3283</v>
+      </c>
+      <c r="G3123" t="s">
+        <v>3323</v>
+      </c>
+      <c r="H3123" t="s">
+        <v>6835</v>
+      </c>
+      <c r="I3123" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3124">
@@ -111271,17 +111271,17 @@
       <c r="E3124" t="s">
         <v>6830</v>
       </c>
-      <c r="F3124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3124" t="e">
-        <v>#N/A</v>
+      <c r="F3124" t="s">
+        <v>3403</v>
+      </c>
+      <c r="G3124" t="s">
+        <v>3406</v>
+      </c>
+      <c r="H3124" t="s">
+        <v>6844</v>
+      </c>
+      <c r="I3124" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3125">
@@ -111300,17 +111300,17 @@
       <c r="E3125" t="s">
         <v>6830</v>
       </c>
-      <c r="F3125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3125" t="e">
-        <v>#N/A</v>
+      <c r="F3125" t="s">
+        <v>3282</v>
+      </c>
+      <c r="G3125" t="s">
+        <v>3405</v>
+      </c>
+      <c r="H3125" t="s">
+        <v>6840</v>
+      </c>
+      <c r="I3125" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3126">
@@ -111329,17 +111329,17 @@
       <c r="E3126" t="s">
         <v>6830</v>
       </c>
-      <c r="F3126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3126" t="e">
-        <v>#N/A</v>
+      <c r="F3126" t="s">
+        <v>3404</v>
+      </c>
+      <c r="G3126" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H3126" t="s">
+        <v>6834</v>
+      </c>
+      <c r="I3126" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3127">
@@ -111358,17 +111358,17 @@
       <c r="E3127" t="s">
         <v>6830</v>
       </c>
-      <c r="F3127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3127" t="e">
-        <v>#N/A</v>
+      <c r="F3127" t="s">
+        <v>3378</v>
+      </c>
+      <c r="G3127" t="s">
+        <v>3307</v>
+      </c>
+      <c r="H3127" t="s">
+        <v>6839</v>
+      </c>
+      <c r="I3127" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3128">
@@ -111387,17 +111387,17 @@
       <c r="E3128" t="s">
         <v>6830</v>
       </c>
-      <c r="F3128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3128" t="e">
-        <v>#N/A</v>
+      <c r="F3128" t="s">
+        <v>3305</v>
+      </c>
+      <c r="G3128" t="s">
+        <v>3377</v>
+      </c>
+      <c r="H3128" t="s">
+        <v>6840</v>
+      </c>
+      <c r="I3128" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3129">
@@ -111416,17 +111416,17 @@
       <c r="E3129" t="s">
         <v>6830</v>
       </c>
-      <c r="F3129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3129" t="e">
-        <v>#N/A</v>
+      <c r="F3129" t="s">
+        <v>3489</v>
+      </c>
+      <c r="G3129" t="s">
+        <v>3492</v>
+      </c>
+      <c r="H3129" t="s">
+        <v>6848</v>
+      </c>
+      <c r="I3129" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3130">
@@ -111445,17 +111445,17 @@
       <c r="E3130" t="s">
         <v>6830</v>
       </c>
-      <c r="F3130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3130" t="e">
-        <v>#N/A</v>
+      <c r="F3130" t="s">
+        <v>3464</v>
+      </c>
+      <c r="G3130" t="s">
+        <v>3562</v>
+      </c>
+      <c r="H3130" t="s">
+        <v>6835</v>
+      </c>
+      <c r="I3130" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3131">
@@ -111474,17 +111474,17 @@
       <c r="E3131" t="s">
         <v>6830</v>
       </c>
-      <c r="F3131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3131" t="e">
-        <v>#N/A</v>
+      <c r="F3131" t="s">
+        <v>3536</v>
+      </c>
+      <c r="G3131" t="s">
+        <v>3538</v>
+      </c>
+      <c r="H3131" t="s">
+        <v>6836</v>
+      </c>
+      <c r="I3131" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3132">
@@ -111503,17 +111503,17 @@
       <c r="E3132" t="s">
         <v>6830</v>
       </c>
-      <c r="F3132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3132" t="e">
-        <v>#N/A</v>
+      <c r="F3132" t="s">
+        <v>3537</v>
+      </c>
+      <c r="G3132" t="s">
+        <v>3491</v>
+      </c>
+      <c r="H3132" t="s">
+        <v>6844</v>
+      </c>
+      <c r="I3132" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3133">
@@ -111532,17 +111532,17 @@
       <c r="E3133" t="s">
         <v>6830</v>
       </c>
-      <c r="F3133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3133" t="e">
-        <v>#N/A</v>
+      <c r="F3133" t="s">
+        <v>3542</v>
+      </c>
+      <c r="G3133" t="s">
+        <v>3519</v>
+      </c>
+      <c r="H3133" t="s">
+        <v>6834</v>
+      </c>
+      <c r="I3133" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3134">
@@ -111561,17 +111561,17 @@
       <c r="E3134" t="s">
         <v>6830</v>
       </c>
-      <c r="F3134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3134" t="e">
-        <v>#N/A</v>
+      <c r="F3134" t="s">
+        <v>3469</v>
+      </c>
+      <c r="G3134" t="s">
+        <v>3556</v>
+      </c>
+      <c r="H3134" t="s">
+        <v>6844</v>
+      </c>
+      <c r="I3134" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3135">
@@ -111590,17 +111590,17 @@
       <c r="E3135" t="s">
         <v>6830</v>
       </c>
-      <c r="F3135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3135" t="e">
-        <v>#N/A</v>
+      <c r="F3135" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G3135" t="s">
+        <v>3381</v>
+      </c>
+      <c r="H3135" t="s">
+        <v>6843</v>
+      </c>
+      <c r="I3135" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3136">
@@ -111619,17 +111619,17 @@
       <c r="E3136" t="s">
         <v>6830</v>
       </c>
-      <c r="F3136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3136" t="e">
-        <v>#N/A</v>
+      <c r="F3136" t="s">
+        <v>3205</v>
+      </c>
+      <c r="G3136" t="s">
+        <v>3318</v>
+      </c>
+      <c r="H3136" t="s">
+        <v>6835</v>
+      </c>
+      <c r="I3136" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3137">
@@ -111648,17 +111648,17 @@
       <c r="E3137" t="s">
         <v>6830</v>
       </c>
-      <c r="F3137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3137" t="e">
-        <v>#N/A</v>
+      <c r="F3137" t="s">
+        <v>3229</v>
+      </c>
+      <c r="G3137" t="s">
+        <v>3319</v>
+      </c>
+      <c r="H3137" t="s">
+        <v>6848</v>
+      </c>
+      <c r="I3137" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3138">
@@ -111677,17 +111677,17 @@
       <c r="E3138" t="s">
         <v>6830</v>
       </c>
-      <c r="F3138" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3138" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3138" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3138" t="e">
-        <v>#N/A</v>
+      <c r="F3138" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G3138" t="s">
+        <v>3228</v>
+      </c>
+      <c r="H3138" t="s">
+        <v>6834</v>
+      </c>
+      <c r="I3138" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3139">
@@ -111706,17 +111706,17 @@
       <c r="E3139" t="s">
         <v>6830</v>
       </c>
-      <c r="F3139" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3139" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3139" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3139" t="e">
-        <v>#N/A</v>
+      <c r="F3139" t="s">
+        <v>3288</v>
+      </c>
+      <c r="G3139" t="s">
+        <v>3230</v>
+      </c>
+      <c r="H3139" t="s">
+        <v>6839</v>
+      </c>
+      <c r="I3139" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3140">
@@ -111735,17 +111735,17 @@
       <c r="E3140" t="s">
         <v>6830</v>
       </c>
-      <c r="F3140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3140" t="e">
-        <v>#N/A</v>
+      <c r="F3140" t="s">
+        <v>3564</v>
+      </c>
+      <c r="G3140" t="s">
+        <v>3476</v>
+      </c>
+      <c r="H3140" t="s">
+        <v>6848</v>
+      </c>
+      <c r="I3140" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3141">
@@ -111764,17 +111764,17 @@
       <c r="E3141" t="s">
         <v>6831</v>
       </c>
-      <c r="F3141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3141" t="e">
-        <v>#N/A</v>
+      <c r="F3141" t="s">
+        <v>3400</v>
+      </c>
+      <c r="G3141" t="s">
+        <v>3322</v>
+      </c>
+      <c r="H3141" t="s">
+        <v>6835</v>
+      </c>
+      <c r="I3141" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3142">
@@ -111793,17 +111793,17 @@
       <c r="E3142" t="s">
         <v>6831</v>
       </c>
-      <c r="F3142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3142" t="e">
-        <v>#N/A</v>
+      <c r="F3142" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G3142" t="s">
+        <v>3488</v>
+      </c>
+      <c r="H3142" t="s">
+        <v>6845</v>
+      </c>
+      <c r="I3142" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3143">
@@ -111822,17 +111822,17 @@
       <c r="E3143" t="s">
         <v>6831</v>
       </c>
-      <c r="F3143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3143" t="e">
-        <v>#N/A</v>
+      <c r="F3143" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G3143" t="s">
+        <v>3466</v>
+      </c>
+      <c r="H3143" t="s">
+        <v>6844</v>
+      </c>
+      <c r="I3143" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3144">
@@ -111851,17 +111851,17 @@
       <c r="E3144" t="s">
         <v>6831</v>
       </c>
-      <c r="F3144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3144" t="e">
-        <v>#N/A</v>
+      <c r="F3144" t="s">
+        <v>3531</v>
+      </c>
+      <c r="G3144" t="s">
+        <v>3490</v>
+      </c>
+      <c r="H3144" t="s">
+        <v>6850</v>
+      </c>
+      <c r="I3144" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="3145">
@@ -111880,17 +111880,17 @@
       <c r="E3145" t="s">
         <v>6831</v>
       </c>
-      <c r="F3145" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3145" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3145" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3145" t="e">
-        <v>#N/A</v>
+      <c r="F3145" t="s">
+        <v>3557</v>
+      </c>
+      <c r="G3145" t="s">
+        <v>3382</v>
+      </c>
+      <c r="H3145" t="s">
+        <v>6843</v>
+      </c>
+      <c r="I3145" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3146">
@@ -111909,17 +111909,17 @@
       <c r="E3146" t="s">
         <v>6831</v>
       </c>
-      <c r="F3146" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3146" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3146" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3146" t="e">
-        <v>#N/A</v>
+      <c r="F3146" t="s">
+        <v>3383</v>
+      </c>
+      <c r="G3146" t="s">
+        <v>3411</v>
+      </c>
+      <c r="H3146" t="s">
+        <v>6859</v>
+      </c>
+      <c r="I3146" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3147">
@@ -111938,17 +111938,17 @@
       <c r="E3147" t="s">
         <v>6831</v>
       </c>
-      <c r="F3147" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3147" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3147" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3147" t="e">
-        <v>#N/A</v>
+      <c r="F3147" t="s">
+        <v>3316</v>
+      </c>
+      <c r="G3147" t="s">
+        <v>3231</v>
+      </c>
+      <c r="H3147" t="s">
+        <v>6848</v>
+      </c>
+      <c r="I3147" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3148">
@@ -111967,17 +111967,17 @@
       <c r="E3148" t="s">
         <v>6829</v>
       </c>
-      <c r="F3148" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3148" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3148" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3148" t="e">
-        <v>#N/A</v>
+      <c r="F3148" t="s">
+        <v>3399</v>
+      </c>
+      <c r="G3148" t="s">
+        <v>3343</v>
+      </c>
+      <c r="H3148" t="s">
+        <v>6832</v>
+      </c>
+      <c r="I3148" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3149">
@@ -111996,17 +111996,17 @@
       <c r="E3149" t="s">
         <v>6829</v>
       </c>
-      <c r="F3149" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3149" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3149" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3149" t="e">
-        <v>#N/A</v>
+      <c r="F3149" t="s">
+        <v>3452</v>
+      </c>
+      <c r="G3149" t="s">
+        <v>3451</v>
+      </c>
+      <c r="H3149" t="s">
+        <v>6848</v>
+      </c>
+      <c r="I3149" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3150">
@@ -112025,17 +112025,17 @@
       <c r="E3150" t="s">
         <v>6829</v>
       </c>
-      <c r="F3150" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3150" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3150" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3150" t="e">
-        <v>#N/A</v>
+      <c r="F3150" t="s">
+        <v>3549</v>
+      </c>
+      <c r="G3150" t="s">
+        <v>3528</v>
+      </c>
+      <c r="H3150" t="s">
+        <v>6837</v>
+      </c>
+      <c r="I3150" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3151">
@@ -112054,17 +112054,17 @@
       <c r="E3151" t="s">
         <v>6829</v>
       </c>
-      <c r="F3151" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3151" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3151" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3151" t="e">
-        <v>#N/A</v>
+      <c r="F3151" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G3151" t="s">
+        <v>3573</v>
+      </c>
+      <c r="H3151" t="s">
+        <v>6841</v>
+      </c>
+      <c r="I3151" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3152">
@@ -112083,17 +112083,17 @@
       <c r="E3152" t="s">
         <v>6829</v>
       </c>
-      <c r="F3152" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3152" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3152" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3152" t="e">
-        <v>#N/A</v>
+      <c r="F3152" t="s">
+        <v>3532</v>
+      </c>
+      <c r="G3152" t="s">
+        <v>3513</v>
+      </c>
+      <c r="H3152" t="s">
+        <v>6849</v>
+      </c>
+      <c r="I3152" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3153">
@@ -112112,17 +112112,17 @@
       <c r="E3153" t="s">
         <v>6829</v>
       </c>
-      <c r="F3153" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3153" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3153" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3153" t="e">
-        <v>#N/A</v>
+      <c r="F3153" t="s">
+        <v>3539</v>
+      </c>
+      <c r="G3153" t="s">
+        <v>3533</v>
+      </c>
+      <c r="H3153" t="s">
+        <v>6837</v>
+      </c>
+      <c r="I3153" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3154">
@@ -112141,17 +112141,17 @@
       <c r="E3154" t="s">
         <v>6829</v>
       </c>
-      <c r="F3154" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3154" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3154" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3154" t="e">
-        <v>#N/A</v>
+      <c r="F3154" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G3154" t="s">
+        <v>3512</v>
+      </c>
+      <c r="H3154" t="s">
+        <v>6839</v>
+      </c>
+      <c r="I3154" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3155">
@@ -112170,17 +112170,17 @@
       <c r="E3155" t="s">
         <v>6829</v>
       </c>
-      <c r="F3155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3155" t="e">
-        <v>#N/A</v>
+      <c r="F3155" t="s">
+        <v>3497</v>
+      </c>
+      <c r="G3155" t="s">
+        <v>3436</v>
+      </c>
+      <c r="H3155" t="s">
+        <v>6832</v>
+      </c>
+      <c r="I3155" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3156">
@@ -112199,17 +112199,17 @@
       <c r="E3156" t="s">
         <v>6829</v>
       </c>
-      <c r="F3156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3156" t="e">
-        <v>#N/A</v>
+      <c r="F3156" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G3156" t="s">
+        <v>3535</v>
+      </c>
+      <c r="H3156" t="s">
+        <v>6832</v>
+      </c>
+      <c r="I3156" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3157">
@@ -112228,17 +112228,17 @@
       <c r="E3157" t="s">
         <v>6829</v>
       </c>
-      <c r="F3157" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3157" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3157" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3157" t="e">
-        <v>#N/A</v>
+      <c r="F3157" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G3157" t="s">
+        <v>3563</v>
+      </c>
+      <c r="H3157" t="s">
+        <v>6862</v>
+      </c>
+      <c r="I3157" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3158">
@@ -112257,17 +112257,17 @@
       <c r="E3158" t="s">
         <v>6829</v>
       </c>
-      <c r="F3158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3158" t="e">
-        <v>#N/A</v>
+      <c r="F3158" t="s">
+        <v>3468</v>
+      </c>
+      <c r="G3158" t="s">
+        <v>3555</v>
+      </c>
+      <c r="H3158" t="s">
+        <v>6835</v>
+      </c>
+      <c r="I3158" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3159">
@@ -112286,17 +112286,17 @@
       <c r="E3159" t="s">
         <v>6829</v>
       </c>
-      <c r="F3159" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3159" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3159" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3159" t="e">
-        <v>#N/A</v>
+      <c r="F3159" t="s">
+        <v>3493</v>
+      </c>
+      <c r="G3159" t="s">
+        <v>3495</v>
+      </c>
+      <c r="H3159" t="s">
+        <v>6840</v>
+      </c>
+      <c r="I3159" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3160">
@@ -112315,17 +112315,17 @@
       <c r="E3160" t="s">
         <v>6829</v>
       </c>
-      <c r="F3160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3160" t="e">
-        <v>#N/A</v>
+      <c r="F3160" t="s">
+        <v>3543</v>
+      </c>
+      <c r="G3160" t="s">
+        <v>3540</v>
+      </c>
+      <c r="H3160" t="s">
+        <v>6833</v>
+      </c>
+      <c r="I3160" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3161">
@@ -112344,17 +112344,17 @@
       <c r="E3161" t="s">
         <v>6829</v>
       </c>
-      <c r="F3161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3161" t="e">
-        <v>#N/A</v>
+      <c r="F3161" t="s">
+        <v>3534</v>
+      </c>
+      <c r="G3161" t="s">
+        <v>3496</v>
+      </c>
+      <c r="H3161" t="s">
+        <v>6846</v>
+      </c>
+      <c r="I3161" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3162">
@@ -112373,17 +112373,17 @@
       <c r="E3162" t="s">
         <v>6829</v>
       </c>
-      <c r="F3162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3162" t="e">
-        <v>#N/A</v>
+      <c r="F3162" t="s">
+        <v>3386</v>
+      </c>
+      <c r="G3162" t="s">
+        <v>3384</v>
+      </c>
+      <c r="H3162" t="s">
+        <v>6862</v>
+      </c>
+      <c r="I3162" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3163">
@@ -112402,17 +112402,17 @@
       <c r="E3163" t="s">
         <v>6829</v>
       </c>
-      <c r="F3163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H3163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3163" t="e">
-        <v>#N/A</v>
+      <c r="F3163" t="s">
+        <v>3206</v>
+      </c>
+      <c r="G3163" t="s">
+        <v>3287</v>
+      </c>
+      <c r="H3163" t="s">
+        <v>6848</v>
+      </c>
+      <c r="I3163" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
